--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="257">
   <si>
     <t>编号</t>
   </si>
@@ -7269,12 +7269,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -7784,10 +7779,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:O136"/>
+      <selection pane="bottomRight" activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12314,7 +12309,7 @@
       </c>
       <c r="O136" s="189"/>
     </row>
-    <row r="137" spans="1:15" s="131" customFormat="1" ht="27">
+    <row r="137" spans="1:15" s="131" customFormat="1" ht="27" hidden="1">
       <c r="A137" s="142">
         <v>135</v>
       </c>
@@ -12337,13 +12332,15 @@
       <c r="H137" s="186"/>
       <c r="I137" s="147"/>
       <c r="J137" s="147"/>
-      <c r="K137" s="186"/>
+      <c r="K137" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L137" s="188"/>
       <c r="M137" s="188" t="s">
         <v>146</v>
       </c>
       <c r="N137" s="144">
-        <v>42625</v>
+        <v>42630</v>
       </c>
       <c r="O137" s="189"/>
     </row>
@@ -12494,7 +12491,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13788,7 +13785,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H10">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="返回">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="返回">
       <formula>NOT(ISERROR(SEARCH("返回",H10)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="257">
   <si>
     <t>编号</t>
   </si>
@@ -7779,10 +7779,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K138" sqref="K138"/>
+      <selection pane="bottomRight" activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="O138" s="189"/>
     </row>
-    <row r="139" spans="1:15" s="131" customFormat="1">
+    <row r="139" spans="1:15" s="131" customFormat="1" hidden="1">
       <c r="A139" s="142">
         <v>137</v>
       </c>
@@ -12400,7 +12400,9 @@
       <c r="H139" s="186"/>
       <c r="I139" s="147"/>
       <c r="J139" s="147"/>
-      <c r="K139" s="186"/>
+      <c r="K139" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L139" s="188"/>
       <c r="M139" s="188" t="s">
         <v>146</v>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="260">
   <si>
     <t>编号</t>
   </si>
@@ -5850,6 +5850,18 @@
       <t>，且不超过一页，如仅有“文件docx样本4-心灵捕手.docx文件中的数字发音$10.000.000。”这一句话。由于一打开就全文朗读，把这句全部反显。
 按照目前的定位方式，无法按4、6键逐句、按7、9键逐字朗读。=》应该准确定位到当前发音的字上，然后针对仅一字、一句、一段的极限情况特别注意处理。(【样例】仅一句.txt)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加反显判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可修改书签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7779,10 +7791,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K140" sqref="K140"/>
+      <selection pane="bottomRight" activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10811,9 +10823,13 @@
       <c r="H90" s="195"/>
       <c r="I90" s="138"/>
       <c r="J90" s="196"/>
-      <c r="K90" s="186"/>
+      <c r="K90" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L90" s="188"/>
-      <c r="M90" s="188"/>
+      <c r="M90" s="188" t="s">
+        <v>258</v>
+      </c>
       <c r="N90" s="144">
         <v>42616</v>
       </c>
@@ -10842,9 +10858,13 @@
       <c r="H91" s="186"/>
       <c r="I91" s="147"/>
       <c r="J91" s="147"/>
-      <c r="K91" s="186"/>
+      <c r="K91" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L91" s="188"/>
-      <c r="M91" s="188"/>
+      <c r="M91" s="188" t="s">
+        <v>258</v>
+      </c>
       <c r="N91" s="144">
         <v>42616</v>
       </c>
@@ -10873,9 +10893,13 @@
       <c r="H92" s="186"/>
       <c r="I92" s="147"/>
       <c r="J92" s="147"/>
-      <c r="K92" s="186"/>
+      <c r="K92" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L92" s="188"/>
-      <c r="M92" s="188"/>
+      <c r="M92" s="188" t="s">
+        <v>258</v>
+      </c>
       <c r="N92" s="144">
         <v>42616</v>
       </c>
@@ -10904,9 +10928,13 @@
       <c r="H93" s="186"/>
       <c r="I93" s="147"/>
       <c r="J93" s="147"/>
-      <c r="K93" s="186"/>
+      <c r="K93" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L93" s="188"/>
-      <c r="M93" s="188"/>
+      <c r="M93" s="188" t="s">
+        <v>258</v>
+      </c>
       <c r="N93" s="144">
         <v>42616</v>
       </c>
@@ -10935,9 +10963,13 @@
       <c r="H94" s="186"/>
       <c r="I94" s="147"/>
       <c r="J94" s="147"/>
-      <c r="K94" s="186"/>
+      <c r="K94" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L94" s="188"/>
-      <c r="M94" s="188"/>
+      <c r="M94" s="188" t="s">
+        <v>258</v>
+      </c>
       <c r="N94" s="144">
         <v>42616</v>
       </c>
@@ -11123,9 +11155,13 @@
       <c r="H100" s="186"/>
       <c r="I100" s="147"/>
       <c r="J100" s="147"/>
-      <c r="K100" s="186"/>
+      <c r="K100" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L100" s="188"/>
-      <c r="M100" s="188"/>
+      <c r="M100" s="188" t="s">
+        <v>257</v>
+      </c>
       <c r="N100" s="144">
         <v>42616</v>
       </c>
@@ -12025,10 +12061,12 @@
       <c r="H128" s="186"/>
       <c r="I128" s="147"/>
       <c r="J128" s="147"/>
-      <c r="K128" s="186"/>
+      <c r="K128" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L128" s="188"/>
       <c r="M128" s="188" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="N128" s="144">
         <v>42625</v>
@@ -12060,10 +12098,12 @@
       <c r="H129" s="186"/>
       <c r="I129" s="147"/>
       <c r="J129" s="147"/>
-      <c r="K129" s="186"/>
+      <c r="K129" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L129" s="188"/>
       <c r="M129" s="188" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="N129" s="144">
         <v>42625</v>
@@ -12200,9 +12240,7 @@
       <c r="J133" s="147"/>
       <c r="K133" s="186"/>
       <c r="L133" s="188"/>
-      <c r="M133" s="188" t="s">
-        <v>146</v>
-      </c>
+      <c r="M133" s="188"/>
       <c r="N133" s="144">
         <v>42625</v>
       </c>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="263">
   <si>
     <t>编号</t>
   </si>
@@ -5862,6 +5862,18 @@
   </si>
   <si>
     <t>添加提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后鼎提供的标点符号转换表的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6665,7 +6677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7274,6 +7286,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7791,10 +7806,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M133" sqref="M133"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7865,7 +7880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="53" customFormat="1" ht="54" hidden="1">
+    <row r="3" spans="1:15" s="53" customFormat="1" ht="54">
       <c r="A3" s="142">
         <v>1</v>
       </c>
@@ -8001,10 +8016,16 @@
       <c r="H6" s="186"/>
       <c r="I6" s="147"/>
       <c r="J6" s="147"/>
-      <c r="K6" s="186"/>
+      <c r="K6" s="186" t="s">
+        <v>260</v>
+      </c>
       <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="144"/>
+      <c r="M6" s="188" t="s">
+        <v>261</v>
+      </c>
+      <c r="N6" s="144">
+        <v>42631</v>
+      </c>
       <c r="O6" s="189"/>
     </row>
     <row r="7" spans="1:15" s="8" customFormat="1" ht="27">
@@ -8030,10 +8051,14 @@
       <c r="H7" s="186"/>
       <c r="I7" s="147"/>
       <c r="J7" s="147"/>
-      <c r="K7" s="186"/>
+      <c r="K7" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L7" s="188"/>
       <c r="M7" s="188"/>
-      <c r="N7" s="144"/>
+      <c r="N7" s="144">
+        <v>42631</v>
+      </c>
       <c r="O7" s="189"/>
     </row>
     <row r="8" spans="1:15" s="70" customFormat="1" ht="27" hidden="1">
@@ -8248,7 +8273,7 @@
       <c r="N13" s="196"/>
       <c r="O13" s="200"/>
     </row>
-    <row r="14" spans="1:15" ht="81" hidden="1">
+    <row r="14" spans="1:15" ht="81">
       <c r="A14" s="142">
         <v>12</v>
       </c>
@@ -8277,7 +8302,7 @@
       <c r="L14" s="188"/>
       <c r="M14" s="188"/>
       <c r="N14" s="144">
-        <v>42625</v>
+        <v>42631</v>
       </c>
       <c r="O14" s="189"/>
     </row>
@@ -8304,10 +8329,14 @@
       <c r="H15" s="186"/>
       <c r="I15" s="147"/>
       <c r="J15" s="147"/>
-      <c r="K15" s="186"/>
+      <c r="K15" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L15" s="188"/>
       <c r="M15" s="188"/>
-      <c r="N15" s="144"/>
+      <c r="N15" s="144">
+        <v>42631</v>
+      </c>
       <c r="O15" s="189"/>
     </row>
     <row r="16" spans="1:15" ht="27">
@@ -8507,10 +8536,14 @@
       <c r="H22" s="186"/>
       <c r="I22" s="147"/>
       <c r="J22" s="147"/>
-      <c r="K22" s="186"/>
+      <c r="K22" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L22" s="188"/>
       <c r="M22" s="188"/>
-      <c r="N22" s="144"/>
+      <c r="N22" s="144">
+        <v>42631</v>
+      </c>
       <c r="O22" s="189"/>
     </row>
     <row r="23" spans="1:15" ht="108">
@@ -8536,10 +8569,14 @@
       <c r="H23" s="186"/>
       <c r="I23" s="147"/>
       <c r="J23" s="147"/>
-      <c r="K23" s="186"/>
+      <c r="K23" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L23" s="188"/>
       <c r="M23" s="188"/>
-      <c r="N23" s="144"/>
+      <c r="N23" s="144">
+        <v>42631</v>
+      </c>
       <c r="O23" s="189"/>
     </row>
     <row r="24" spans="1:15" ht="40.5">
@@ -8594,10 +8631,16 @@
       <c r="H25" s="186"/>
       <c r="I25" s="147"/>
       <c r="J25" s="147"/>
-      <c r="K25" s="186"/>
+      <c r="K25" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L25" s="188"/>
-      <c r="M25" s="188"/>
-      <c r="N25" s="144"/>
+      <c r="M25" s="188" t="s">
+        <v>262</v>
+      </c>
+      <c r="N25" s="144">
+        <v>42631</v>
+      </c>
       <c r="O25" s="189"/>
     </row>
     <row r="26" spans="1:15" s="70" customFormat="1" ht="54" hidden="1">
@@ -9096,7 +9139,7 @@
       </c>
       <c r="O41" s="200"/>
     </row>
-    <row r="42" spans="1:15" s="53" customFormat="1" ht="108" hidden="1">
+    <row r="42" spans="1:15" s="53" customFormat="1" ht="108">
       <c r="A42" s="142">
         <v>40</v>
       </c>
@@ -9133,7 +9176,7 @@
       </c>
       <c r="O42" s="189"/>
     </row>
-    <row r="43" spans="1:15" s="53" customFormat="1" ht="256.5" hidden="1">
+    <row r="43" spans="1:15" s="53" customFormat="1" ht="256.5">
       <c r="A43" s="142">
         <v>41</v>
       </c>
@@ -9199,7 +9242,7 @@
       <c r="N44" s="144"/>
       <c r="O44" s="189"/>
     </row>
-    <row r="45" spans="1:15" s="53" customFormat="1" ht="94.5" hidden="1">
+    <row r="45" spans="1:15" s="53" customFormat="1" ht="94.5">
       <c r="A45" s="142">
         <v>43</v>
       </c>
@@ -9234,7 +9277,7 @@
       </c>
       <c r="O45" s="189"/>
     </row>
-    <row r="46" spans="1:15" s="53" customFormat="1" ht="270" hidden="1">
+    <row r="46" spans="1:15" s="53" customFormat="1" ht="270">
       <c r="A46" s="142">
         <v>44</v>
       </c>
@@ -9269,7 +9312,7 @@
       </c>
       <c r="O46" s="189"/>
     </row>
-    <row r="47" spans="1:15" s="53" customFormat="1" ht="121.5" hidden="1">
+    <row r="47" spans="1:15" s="53" customFormat="1" ht="121.5">
       <c r="A47" s="142">
         <v>45</v>
       </c>
@@ -9368,7 +9411,7 @@
       <c r="N49" s="144"/>
       <c r="O49" s="189"/>
     </row>
-    <row r="50" spans="1:15" s="190" customFormat="1" ht="108" hidden="1">
+    <row r="50" spans="1:15" s="190" customFormat="1" ht="108">
       <c r="A50" s="142">
         <v>48</v>
       </c>
@@ -9440,7 +9483,7 @@
       <c r="N51" s="196"/>
       <c r="O51" s="200"/>
     </row>
-    <row r="52" spans="1:15" s="68" customFormat="1" ht="27" hidden="1">
+    <row r="52" spans="1:15" s="68" customFormat="1" ht="27">
       <c r="A52" s="142">
         <v>50</v>
       </c>
@@ -9504,7 +9547,7 @@
       <c r="N53" s="144"/>
       <c r="O53" s="189"/>
     </row>
-    <row r="54" spans="1:15" s="79" customFormat="1" ht="94.5" hidden="1">
+    <row r="54" spans="1:15" s="79" customFormat="1" ht="94.5">
       <c r="A54" s="142">
         <v>52</v>
       </c>
@@ -9617,7 +9660,7 @@
       </c>
       <c r="O56" s="189"/>
     </row>
-    <row r="57" spans="1:15" s="79" customFormat="1" ht="175.5" hidden="1">
+    <row r="57" spans="1:15" s="79" customFormat="1" ht="175.5">
       <c r="A57" s="142">
         <v>55</v>
       </c>
@@ -10080,7 +10123,7 @@
       </c>
       <c r="O69" s="200"/>
     </row>
-    <row r="70" spans="1:15" s="79" customFormat="1" ht="40.5" hidden="1">
+    <row r="70" spans="1:15" s="79" customFormat="1" ht="40.5">
       <c r="A70" s="142">
         <v>68</v>
       </c>
@@ -10199,7 +10242,7 @@
       </c>
       <c r="O72" s="200"/>
     </row>
-    <row r="73" spans="1:15" s="79" customFormat="1" ht="54" hidden="1">
+    <row r="73" spans="1:15" s="79" customFormat="1" ht="54">
       <c r="A73" s="142">
         <v>71</v>
       </c>
@@ -10316,7 +10359,7 @@
       </c>
       <c r="O75" s="200"/>
     </row>
-    <row r="76" spans="1:15" s="68" customFormat="1" ht="54" hidden="1">
+    <row r="76" spans="1:15" s="68" customFormat="1" ht="54">
       <c r="A76" s="142">
         <v>74</v>
       </c>
@@ -10353,7 +10396,7 @@
       </c>
       <c r="O76" s="189"/>
     </row>
-    <row r="77" spans="1:15" s="79" customFormat="1" ht="40.5" hidden="1">
+    <row r="77" spans="1:15" s="79" customFormat="1" ht="40.5">
       <c r="A77" s="142">
         <v>75</v>
       </c>
@@ -10495,7 +10538,7 @@
       <c r="N80" s="144"/>
       <c r="O80" s="189"/>
     </row>
-    <row r="81" spans="1:15" s="79" customFormat="1" ht="40.5" hidden="1">
+    <row r="81" spans="1:15" s="79" customFormat="1" ht="40.5">
       <c r="A81" s="142">
         <v>79</v>
       </c>
@@ -11309,7 +11352,7 @@
       </c>
       <c r="O104" s="200"/>
     </row>
-    <row r="105" spans="1:15" s="79" customFormat="1" ht="27" hidden="1">
+    <row r="105" spans="1:15" s="79" customFormat="1" ht="27">
       <c r="A105" s="142">
         <v>103</v>
       </c>
@@ -11338,7 +11381,9 @@
         <v>58</v>
       </c>
       <c r="L105" s="188"/>
-      <c r="M105" s="188"/>
+      <c r="M105" s="203">
+        <v>42630</v>
+      </c>
       <c r="N105" s="144">
         <v>42616</v>
       </c>
@@ -11724,7 +11769,7 @@
       <c r="N117" s="144"/>
       <c r="O117" s="189"/>
     </row>
-    <row r="118" spans="1:15" ht="40.5" hidden="1">
+    <row r="118" spans="1:15" ht="40.5">
       <c r="A118" s="142">
         <v>116</v>
       </c>
@@ -11754,10 +11799,12 @@
       <c r="M118" s="188" t="s">
         <v>251</v>
       </c>
-      <c r="N118" s="144"/>
+      <c r="N118" s="144">
+        <v>42630</v>
+      </c>
       <c r="O118" s="189"/>
     </row>
-    <row r="119" spans="1:15" ht="27" hidden="1">
+    <row r="119" spans="1:15" ht="27">
       <c r="A119" s="142">
         <v>117</v>
       </c>
@@ -11787,10 +11834,12 @@
       <c r="M119" s="188" t="s">
         <v>251</v>
       </c>
-      <c r="N119" s="144"/>
+      <c r="N119" s="144">
+        <v>42630</v>
+      </c>
       <c r="O119" s="189"/>
     </row>
-    <row r="120" spans="1:15" ht="94.5" hidden="1">
+    <row r="120" spans="1:15" ht="94.5">
       <c r="A120" s="142">
         <v>118</v>
       </c>
@@ -11818,10 +11867,12 @@
       </c>
       <c r="L120" s="188"/>
       <c r="M120" s="188"/>
-      <c r="N120" s="144"/>
+      <c r="N120" s="144">
+        <v>42630</v>
+      </c>
       <c r="O120" s="189"/>
     </row>
-    <row r="121" spans="1:15" ht="108" hidden="1">
+    <row r="121" spans="1:15" ht="108">
       <c r="A121" s="142">
         <v>119</v>
       </c>
@@ -11849,7 +11900,9 @@
       </c>
       <c r="L121" s="188"/>
       <c r="M121" s="188"/>
-      <c r="N121" s="144"/>
+      <c r="N121" s="144">
+        <v>42630</v>
+      </c>
       <c r="O121" s="189"/>
     </row>
     <row r="122" spans="1:15" ht="40.5">
@@ -11910,7 +11963,7 @@
       <c r="N123" s="192"/>
       <c r="O123" s="189"/>
     </row>
-    <row r="124" spans="1:15" ht="40.5" hidden="1">
+    <row r="124" spans="1:15" ht="40.5">
       <c r="A124" s="142">
         <v>122</v>
       </c>
@@ -11938,10 +11991,12 @@
       </c>
       <c r="L124" s="188"/>
       <c r="M124" s="188"/>
-      <c r="N124" s="192"/>
+      <c r="N124" s="192">
+        <v>42630</v>
+      </c>
       <c r="O124" s="189"/>
     </row>
-    <row r="125" spans="1:15" ht="40.5" hidden="1">
+    <row r="125" spans="1:15" ht="40.5">
       <c r="A125" s="142">
         <v>123</v>
       </c>
@@ -11969,7 +12024,9 @@
       </c>
       <c r="L125" s="188"/>
       <c r="M125" s="188"/>
-      <c r="N125" s="192"/>
+      <c r="N125" s="192">
+        <v>42630</v>
+      </c>
       <c r="O125" s="189"/>
     </row>
     <row r="126" spans="1:15" s="190" customFormat="1" ht="40.5">
@@ -12003,7 +12060,7 @@
       <c r="N126" s="192"/>
       <c r="O126" s="189"/>
     </row>
-    <row r="127" spans="1:15" s="190" customFormat="1" ht="40.5" hidden="1">
+    <row r="127" spans="1:15" s="190" customFormat="1" ht="40.5">
       <c r="A127" s="142">
         <v>125</v>
       </c>
@@ -12033,7 +12090,9 @@
       </c>
       <c r="L127" s="188"/>
       <c r="M127" s="188"/>
-      <c r="N127" s="192"/>
+      <c r="N127" s="192">
+        <v>42630</v>
+      </c>
       <c r="O127" s="189"/>
     </row>
     <row r="128" spans="1:15" s="131" customFormat="1" ht="40.5">
@@ -12347,7 +12406,7 @@
       </c>
       <c r="O136" s="189"/>
     </row>
-    <row r="137" spans="1:15" s="131" customFormat="1" ht="27" hidden="1">
+    <row r="137" spans="1:15" s="131" customFormat="1" ht="27">
       <c r="A137" s="142">
         <v>135</v>
       </c>
@@ -12415,7 +12474,7 @@
       </c>
       <c r="O138" s="189"/>
     </row>
-    <row r="139" spans="1:15" s="131" customFormat="1" hidden="1">
+    <row r="139" spans="1:15" s="131" customFormat="1">
       <c r="A139" s="142">
         <v>137</v>
       </c>
@@ -12446,7 +12505,7 @@
         <v>146</v>
       </c>
       <c r="N139" s="144">
-        <v>42625</v>
+        <v>42630</v>
       </c>
       <c r="O139" s="189"/>
     </row>
@@ -12522,11 +12581,11 @@
   </sheetData>
   <autoFilter ref="A2:O141">
     <filterColumn colId="7">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="返回"/>
+      </filters>
     </filterColumn>
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
+    <filterColumn colId="10"/>
     <filterColumn colId="11"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="265">
   <si>
     <t>编号</t>
   </si>
@@ -5874,6 +5874,14 @@
   </si>
   <si>
     <t>后鼎提供的标点符号转换表的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加了关机广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加逻辑判断和提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7806,10 +7814,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11484,9 +11492,13 @@
       <c r="H108" s="195"/>
       <c r="I108" s="147"/>
       <c r="J108" s="147"/>
-      <c r="K108" s="186"/>
+      <c r="K108" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L108" s="188"/>
-      <c r="M108" s="188"/>
+      <c r="M108" s="188" t="s">
+        <v>263</v>
+      </c>
       <c r="N108" s="144">
         <v>42616</v>
       </c>
@@ -12054,9 +12066,13 @@
       <c r="H126" s="186"/>
       <c r="I126" s="194"/>
       <c r="J126" s="192"/>
-      <c r="K126" s="186"/>
+      <c r="K126" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L126" s="188"/>
-      <c r="M126" s="188"/>
+      <c r="M126" s="188" t="s">
+        <v>264</v>
+      </c>
       <c r="N126" s="192"/>
       <c r="O126" s="189"/>
     </row>
@@ -12581,7 +12597,7 @@
   </sheetData>
   <autoFilter ref="A2:O141">
     <filterColumn colId="7">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="266">
   <si>
     <t>编号</t>
   </si>
@@ -5882,6 +5882,10 @@
   </si>
   <si>
     <t>添加逻辑判断和提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加书签界面问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7814,10 +7818,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M126" sqref="M126"/>
+      <selection pane="bottomRight" activeCell="M133" sqref="M133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12313,9 +12317,13 @@
       <c r="H133" s="186"/>
       <c r="I133" s="147"/>
       <c r="J133" s="147"/>
-      <c r="K133" s="186"/>
+      <c r="K133" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L133" s="188"/>
-      <c r="M133" s="188"/>
+      <c r="M133" s="188" t="s">
+        <v>265</v>
+      </c>
       <c r="N133" s="144">
         <v>42625</v>
       </c>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="270">
   <si>
     <t>编号</t>
   </si>
@@ -5865,14 +5865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后鼎提供的标点符号转换表的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5886,6 +5878,29 @@
   </si>
   <si>
     <t>增加书签界面问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>后鼎提供的数据有问题，需要后鼎修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统共性问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的TTS不支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的TTS不支持语音音效，等待下一版TTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7818,10 +7833,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M133" sqref="M133"/>
+      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8029,11 +8044,11 @@
       <c r="I6" s="147"/>
       <c r="J6" s="147"/>
       <c r="K6" s="186" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L6" s="188"/>
       <c r="M6" s="188" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N6" s="144">
         <v>42631</v>
@@ -8648,7 +8663,7 @@
       </c>
       <c r="L25" s="188"/>
       <c r="M25" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N25" s="144">
         <v>42631</v>
@@ -8713,10 +8728,14 @@
       <c r="H27" s="186"/>
       <c r="I27" s="147"/>
       <c r="J27" s="147"/>
-      <c r="K27" s="186"/>
+      <c r="K27" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L27" s="188"/>
       <c r="M27" s="188"/>
-      <c r="N27" s="144"/>
+      <c r="N27" s="144">
+        <v>42631</v>
+      </c>
       <c r="O27" s="189"/>
     </row>
     <row r="28" spans="1:15" ht="202.5">
@@ -8887,10 +8906,14 @@
       <c r="H33" s="186"/>
       <c r="I33" s="147"/>
       <c r="J33" s="147"/>
-      <c r="K33" s="186"/>
+      <c r="K33" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L33" s="188"/>
       <c r="M33" s="188"/>
-      <c r="N33" s="144"/>
+      <c r="N33" s="144">
+        <v>42631</v>
+      </c>
       <c r="O33" s="189"/>
     </row>
     <row r="34" spans="1:15" ht="94.5">
@@ -8916,10 +8939,14 @@
       <c r="H34" s="186"/>
       <c r="I34" s="147"/>
       <c r="J34" s="147"/>
-      <c r="K34" s="186"/>
+      <c r="K34" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L34" s="188"/>
       <c r="M34" s="188"/>
-      <c r="N34" s="144"/>
+      <c r="N34" s="144">
+        <v>42631</v>
+      </c>
       <c r="O34" s="189"/>
     </row>
     <row r="35" spans="1:15" s="68" customFormat="1" ht="67.5">
@@ -8945,10 +8972,14 @@
       <c r="H35" s="186"/>
       <c r="I35" s="194"/>
       <c r="J35" s="194"/>
-      <c r="K35" s="186"/>
+      <c r="K35" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L35" s="188"/>
       <c r="M35" s="188"/>
-      <c r="N35" s="192"/>
+      <c r="N35" s="192">
+        <v>42631</v>
+      </c>
       <c r="O35" s="189"/>
     </row>
     <row r="36" spans="1:15" s="70" customFormat="1" hidden="1">
@@ -9011,10 +9042,16 @@
       <c r="H37" s="186"/>
       <c r="I37" s="147"/>
       <c r="J37" s="147"/>
-      <c r="K37" s="186"/>
+      <c r="K37" s="186" t="s">
+        <v>264</v>
+      </c>
       <c r="L37" s="188"/>
-      <c r="M37" s="188"/>
-      <c r="N37" s="144"/>
+      <c r="M37" s="188" t="s">
+        <v>265</v>
+      </c>
+      <c r="N37" s="144">
+        <v>42631</v>
+      </c>
       <c r="O37" s="189"/>
     </row>
     <row r="38" spans="1:15">
@@ -9042,10 +9079,18 @@
       <c r="H38" s="186"/>
       <c r="I38" s="147"/>
       <c r="J38" s="147"/>
-      <c r="K38" s="186"/>
-      <c r="L38" s="188"/>
-      <c r="M38" s="188"/>
-      <c r="N38" s="144"/>
+      <c r="K38" s="186" t="s">
+        <v>264</v>
+      </c>
+      <c r="L38" s="188" t="s">
+        <v>267</v>
+      </c>
+      <c r="M38" s="188" t="s">
+        <v>268</v>
+      </c>
+      <c r="N38" s="144">
+        <v>42631</v>
+      </c>
       <c r="O38" s="189"/>
     </row>
     <row r="39" spans="1:15" s="70" customFormat="1" hidden="1">
@@ -9248,10 +9293,14 @@
       <c r="H44" s="186"/>
       <c r="I44" s="147"/>
       <c r="J44" s="147"/>
-      <c r="K44" s="186"/>
+      <c r="K44" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L44" s="188"/>
       <c r="M44" s="188"/>
-      <c r="N44" s="144"/>
+      <c r="N44" s="144">
+        <v>42631</v>
+      </c>
       <c r="O44" s="189"/>
     </row>
     <row r="45" spans="1:15" s="53" customFormat="1" ht="94.5">
@@ -9806,10 +9855,16 @@
       <c r="H60" s="186"/>
       <c r="I60" s="147"/>
       <c r="J60" s="147"/>
-      <c r="K60" s="186"/>
+      <c r="K60" s="186" t="s">
+        <v>264</v>
+      </c>
       <c r="L60" s="188"/>
-      <c r="M60" s="188"/>
-      <c r="N60" s="144"/>
+      <c r="M60" s="188" t="s">
+        <v>269</v>
+      </c>
+      <c r="N60" s="144">
+        <v>42630</v>
+      </c>
       <c r="O60" s="189"/>
     </row>
     <row r="61" spans="1:15" s="79" customFormat="1" ht="27">
@@ -9835,13 +9890,17 @@
       <c r="H61" s="186"/>
       <c r="I61" s="147"/>
       <c r="J61" s="147"/>
-      <c r="K61" s="186"/>
+      <c r="K61" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L61" s="188"/>
       <c r="M61" s="188"/>
-      <c r="N61" s="144"/>
+      <c r="N61" s="144">
+        <v>42630</v>
+      </c>
       <c r="O61" s="189"/>
     </row>
-    <row r="62" spans="1:15" s="79" customFormat="1">
+    <row r="62" spans="1:15" s="79" customFormat="1" ht="27">
       <c r="A62" s="142">
         <v>60</v>
       </c>
@@ -9864,10 +9923,16 @@
       <c r="H62" s="186"/>
       <c r="I62" s="147"/>
       <c r="J62" s="147"/>
-      <c r="K62" s="186"/>
+      <c r="K62" s="186" t="s">
+        <v>264</v>
+      </c>
       <c r="L62" s="188"/>
-      <c r="M62" s="188"/>
-      <c r="N62" s="144"/>
+      <c r="M62" s="188" t="s">
+        <v>269</v>
+      </c>
+      <c r="N62" s="144">
+        <v>42630</v>
+      </c>
       <c r="O62" s="189"/>
     </row>
     <row r="63" spans="1:15" s="70" customFormat="1" hidden="1">
@@ -9934,10 +9999,16 @@
       <c r="H64" s="186"/>
       <c r="I64" s="147"/>
       <c r="J64" s="147"/>
-      <c r="K64" s="186"/>
+      <c r="K64" s="186" t="s">
+        <v>264</v>
+      </c>
       <c r="L64" s="188"/>
-      <c r="M64" s="188"/>
-      <c r="N64" s="144"/>
+      <c r="M64" s="188" t="s">
+        <v>269</v>
+      </c>
+      <c r="N64" s="144">
+        <v>42630</v>
+      </c>
       <c r="O64" s="189"/>
     </row>
     <row r="65" spans="1:15" s="70" customFormat="1" hidden="1">
@@ -11501,7 +11572,7 @@
       </c>
       <c r="L108" s="188"/>
       <c r="M108" s="188" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N108" s="144">
         <v>42616</v>
@@ -12075,7 +12146,7 @@
       </c>
       <c r="L126" s="188"/>
       <c r="M126" s="188" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N126" s="192"/>
       <c r="O126" s="189"/>
@@ -12322,7 +12393,7 @@
       </c>
       <c r="L133" s="188"/>
       <c r="M133" s="188" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N133" s="144">
         <v>42625</v>
@@ -12624,7 +12695,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K126:K141 K14:K50 K10 K89:K115 K52:K87 K3:K8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K126:K141 K14:K50 K10 K89:K115 K3:K8 K52:K87">
       <formula1>"是否修改,是,否,其他"</formula1>
     </dataValidation>
   </dataValidations>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="272">
   <si>
     <t>编号</t>
   </si>
@@ -5901,6 +5901,14 @@
   </si>
   <si>
     <t>目前的TTS不支持语音音效，等待下一版TTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加设置里的记忆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7833,10 +7841,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9151,9 +9159,13 @@
       <c r="H40" s="186"/>
       <c r="I40" s="147"/>
       <c r="J40" s="147"/>
-      <c r="K40" s="186"/>
+      <c r="K40" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
+      <c r="M40" s="188" t="s">
+        <v>270</v>
+      </c>
       <c r="N40" s="144"/>
       <c r="O40" s="189"/>
     </row>
@@ -11124,9 +11136,13 @@
       <c r="H95" s="195"/>
       <c r="I95" s="138"/>
       <c r="J95" s="196"/>
-      <c r="K95" s="186"/>
+      <c r="K95" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L95" s="188"/>
-      <c r="M95" s="188"/>
+      <c r="M95" s="188" t="s">
+        <v>271</v>
+      </c>
       <c r="N95" s="144">
         <v>42616</v>
       </c>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="273">
   <si>
     <t>编号</t>
   </si>
@@ -5909,6 +5909,10 @@
   </si>
   <si>
     <t>添加排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回调中添加文件操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7841,10 +7845,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M95" sqref="M95"/>
+      <selection pane="bottomRight" activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11550,9 +11554,13 @@
       <c r="H107" s="195"/>
       <c r="I107" s="147"/>
       <c r="J107" s="147"/>
-      <c r="K107" s="186"/>
+      <c r="K107" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L107" s="188"/>
-      <c r="M107" s="188"/>
+      <c r="M107" s="188" t="s">
+        <v>272</v>
+      </c>
       <c r="N107" s="144">
         <v>42616</v>
       </c>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="274">
   <si>
     <t>编号</t>
   </si>
@@ -5913,6 +5913,10 @@
   </si>
   <si>
     <t>回调中添加文件操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前的规格是这样的：当翻行翻页后，从当前屏第一行开始朗读，所以会有此现象。陈刚说遗留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7845,10 +7849,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M107" sqref="M107"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8401,10 +8405,14 @@
       <c r="H16" s="186"/>
       <c r="I16" s="147"/>
       <c r="J16" s="147"/>
-      <c r="K16" s="186"/>
+      <c r="K16" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L16" s="188"/>
       <c r="M16" s="188"/>
-      <c r="N16" s="144"/>
+      <c r="N16" s="144">
+        <v>42632</v>
+      </c>
       <c r="O16" s="189"/>
     </row>
     <row r="17" spans="1:15" ht="40.5">
@@ -8430,13 +8438,17 @@
       <c r="H17" s="186"/>
       <c r="I17" s="147"/>
       <c r="J17" s="147"/>
-      <c r="K17" s="186"/>
+      <c r="K17" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L17" s="188"/>
       <c r="M17" s="188"/>
-      <c r="N17" s="144"/>
+      <c r="N17" s="144">
+        <v>42632</v>
+      </c>
       <c r="O17" s="189"/>
     </row>
-    <row r="18" spans="1:15" ht="27">
+    <row r="18" spans="1:15" ht="54">
       <c r="A18" s="142">
         <v>16</v>
       </c>
@@ -8459,10 +8471,16 @@
       <c r="H18" s="186"/>
       <c r="I18" s="147"/>
       <c r="J18" s="147"/>
-      <c r="K18" s="186"/>
+      <c r="K18" s="186" t="s">
+        <v>264</v>
+      </c>
       <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="144"/>
+      <c r="M18" s="188" t="s">
+        <v>273</v>
+      </c>
+      <c r="N18" s="144">
+        <v>42632</v>
+      </c>
       <c r="O18" s="189"/>
     </row>
     <row r="19" spans="1:15" s="53" customFormat="1" ht="121.5">

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="275">
   <si>
     <t>编号</t>
   </si>
@@ -5917,6 +5917,10 @@
   </si>
   <si>
     <t>目前的规格是这样的：当翻行翻页后，从当前屏第一行开始朗读，所以会有此现象。陈刚说遗留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加音乐播放判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7849,10 +7853,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F135" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="M131" sqref="M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12327,10 +12331,12 @@
       <c r="H130" s="186"/>
       <c r="I130" s="147"/>
       <c r="J130" s="147"/>
-      <c r="K130" s="186"/>
+      <c r="K130" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L130" s="188"/>
       <c r="M130" s="188" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="N130" s="144">
         <v>42625</v>
@@ -12362,10 +12368,12 @@
       <c r="H131" s="186"/>
       <c r="I131" s="147"/>
       <c r="J131" s="147"/>
-      <c r="K131" s="186"/>
+      <c r="K131" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L131" s="188"/>
       <c r="M131" s="188" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="N131" s="144">
         <v>42625</v>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="278">
   <si>
     <t>编号</t>
   </si>
@@ -5921,6 +5921,18 @@
   </si>
   <si>
     <t>添加音乐播放判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加隐藏文件判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件遍历判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7853,10 +7865,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M131" sqref="M131"/>
+      <selection pane="bottomRight" activeCell="M123" sqref="M123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11714,9 +11726,13 @@
       <c r="H111" s="101"/>
       <c r="I111" s="102"/>
       <c r="J111" s="102"/>
-      <c r="K111" s="99"/>
+      <c r="K111" s="99" t="s">
+        <v>58</v>
+      </c>
       <c r="L111" s="100"/>
-      <c r="M111" s="100"/>
+      <c r="M111" s="100" t="s">
+        <v>275</v>
+      </c>
       <c r="N111" s="103"/>
       <c r="O111" s="104"/>
     </row>
@@ -12090,9 +12106,13 @@
       <c r="H123" s="186"/>
       <c r="I123" s="194"/>
       <c r="J123" s="192"/>
-      <c r="K123" s="186"/>
+      <c r="K123" s="186" t="s">
+        <v>276</v>
+      </c>
       <c r="L123" s="188"/>
-      <c r="M123" s="188"/>
+      <c r="M123" s="188" t="s">
+        <v>277</v>
+      </c>
       <c r="N123" s="192"/>
       <c r="O123" s="189"/>
     </row>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="280">
   <si>
     <t>编号</t>
   </si>
@@ -5933,6 +5933,14 @@
   </si>
   <si>
     <t>修改文件遍历判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改逻辑，添加无效键判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7865,10 +7873,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M123" sqref="M123"/>
+      <selection pane="bottomRight" activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10871,9 +10879,13 @@
       <c r="H86" s="195"/>
       <c r="I86" s="138"/>
       <c r="J86" s="196"/>
-      <c r="K86" s="186"/>
+      <c r="K86" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L86" s="188"/>
-      <c r="M86" s="188"/>
+      <c r="M86" s="188" t="s">
+        <v>278</v>
+      </c>
       <c r="N86" s="144">
         <v>42616</v>
       </c>
@@ -10904,9 +10916,13 @@
       <c r="H87" s="195"/>
       <c r="I87" s="138"/>
       <c r="J87" s="196"/>
-      <c r="K87" s="186"/>
+      <c r="K87" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L87" s="188"/>
-      <c r="M87" s="188"/>
+      <c r="M87" s="188" t="s">
+        <v>279</v>
+      </c>
       <c r="N87" s="144">
         <v>42616</v>
       </c>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="282">
   <si>
     <t>编号</t>
   </si>
@@ -5941,6 +5941,14 @@
   </si>
   <si>
     <t>修改逻辑，添加无效键判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能复现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7873,10 +7881,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F117" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M87" sqref="M87"/>
+      <selection pane="bottomRight" activeCell="N122" sqref="N122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11841,10 +11849,14 @@
       <c r="H114" s="176"/>
       <c r="I114" s="194"/>
       <c r="J114" s="194"/>
-      <c r="K114" s="186"/>
+      <c r="K114" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L114" s="188"/>
       <c r="M114" s="188"/>
-      <c r="N114" s="192"/>
+      <c r="N114" s="192">
+        <v>42634</v>
+      </c>
       <c r="O114" s="189"/>
     </row>
     <row r="115" spans="1:15" s="131" customFormat="1" ht="81">
@@ -11870,10 +11882,14 @@
       <c r="H115" s="140"/>
       <c r="I115" s="138"/>
       <c r="J115" s="196"/>
-      <c r="K115" s="186"/>
+      <c r="K115" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L115" s="188"/>
       <c r="M115" s="188"/>
-      <c r="N115" s="144"/>
+      <c r="N115" s="144">
+        <v>42634</v>
+      </c>
       <c r="O115" s="189"/>
     </row>
     <row r="116" spans="1:15" s="3" customFormat="1" ht="40.5">
@@ -12093,10 +12109,16 @@
       <c r="H122" s="140"/>
       <c r="I122" s="138"/>
       <c r="J122" s="196"/>
-      <c r="K122" s="186"/>
+      <c r="K122" s="186" t="s">
+        <v>280</v>
+      </c>
       <c r="L122" s="188"/>
-      <c r="M122" s="188"/>
-      <c r="N122" s="144"/>
+      <c r="M122" s="188" t="s">
+        <v>281</v>
+      </c>
+      <c r="N122" s="144">
+        <v>42634</v>
+      </c>
       <c r="O122" s="189"/>
     </row>
     <row r="123" spans="1:15" ht="94.5">

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="282">
   <si>
     <t>编号</t>
   </si>
@@ -7881,10 +7881,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F117" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N122" sqref="N122"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8691,10 +8691,14 @@
       <c r="H24" s="186"/>
       <c r="I24" s="147"/>
       <c r="J24" s="147"/>
-      <c r="K24" s="186"/>
+      <c r="K24" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L24" s="188"/>
       <c r="M24" s="188"/>
-      <c r="N24" s="144"/>
+      <c r="N24" s="144">
+        <v>42634</v>
+      </c>
       <c r="O24" s="189"/>
     </row>
     <row r="25" spans="1:15" ht="40.5">
@@ -12784,7 +12788,7 @@
   </sheetData>
   <autoFilter ref="A2:O141">
     <filterColumn colId="7">
-      <filters>
+      <filters blank="1">
         <filter val="返回"/>
       </filters>
     </filterColumn>

--- a/测试单-电子书_txt-word_160917.xlsx
+++ b/测试单-电子书_txt-word_160917.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="282">
   <si>
     <t>编号</t>
   </si>
@@ -7881,10 +7881,10 @@
   <dimension ref="A1:O143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8943,10 +8943,14 @@
       <c r="H32" s="186"/>
       <c r="I32" s="147"/>
       <c r="J32" s="147"/>
-      <c r="K32" s="186"/>
+      <c r="K32" s="186" t="s">
+        <v>58</v>
+      </c>
       <c r="L32" s="188"/>
       <c r="M32" s="188"/>
-      <c r="N32" s="144"/>
+      <c r="N32" s="144">
+        <v>42634</v>
+      </c>
       <c r="O32" s="189"/>
     </row>
     <row r="33" spans="1:15" ht="54">
@@ -12788,7 +12792,7 @@
   </sheetData>
   <autoFilter ref="A2:O141">
     <filterColumn colId="7">
-      <filters blank="1">
+      <filters>
         <filter val="返回"/>
       </filters>
     </filterColumn>
